--- a/第3篇Excel自动化/第6章管理Excel文件/excel/output.xlsx
+++ b/第3篇Excel自动化/第6章管理Excel文件/excel/output.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\kirito文件\mygithub\python-study\第3篇Excel自动化\第6章管理Excel文件\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\kirito文件\mygithub\python-office-study\第3篇Excel自动化\第6章管理Excel文件\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="7470" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="姓名3" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="姓名1" sheetId="3" r:id="rId3"/>
-    <sheet name="姓名" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="test" sheetId="6" r:id="rId1"/>
+    <sheet name="姓名3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="test2" sheetId="7" r:id="rId4"/>
+    <sheet name="姓名1" sheetId="3" r:id="rId5"/>
+    <sheet name="姓名" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -34,14 +44,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -132,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -167,7 +175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -342,11 +350,6 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -354,6 +357,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -363,52 +405,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
